--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201723.471970562</v>
+        <v>251558.1362466136</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8278349.415313996</v>
+        <v>8290975.678850919</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.2093808417141</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.4210485505238</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>50.06795868236567</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.1953825260219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>127.90408679447</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>239.4011520212434</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>317.6456208057801</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>68.30259287103388</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.84692347866412</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>132.7957673084567</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>23.21215624113741</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.22530271040072</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659414</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772231</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733548</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.4380635245692</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074791</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946043</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.64034175572582</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820416</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225714</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,13 +2479,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>111.7936689725571</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>103.828474294603</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>56.72042565247699</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682196</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>144.4937753855482</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>115.1105674615481</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011215</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948852</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3910,7 +3910,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.3431845617052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225779</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068455</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1667.248894477528</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901426</v>
+        <v>1633.146825701355</v>
       </c>
       <c r="D2" t="n">
-        <v>780.7091764049912</v>
+        <v>1601.277444916204</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9748356036905</v>
+        <v>1167.502700074499</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>739.6352704837066</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693169</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693169</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2113.711294551226</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2113.711294551226</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2112.896244002663</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1693.753780581974</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1689.508060922032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397417</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064425</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940204</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>526.7806337295169</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>354.2189222127419</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>188.3409294142645</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>188.3409294142645</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>188.3409294142645</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.0427573423582</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>618.2526391103193</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1077.736506291232</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1519.995309448877</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1939.664558674658</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512701</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091156</v>
       </c>
       <c r="U4" t="n">
-        <v>1024.341879988165</v>
+        <v>1750.392590344261</v>
       </c>
       <c r="V4" t="n">
-        <v>1024.341879988165</v>
+        <v>1463.437082214692</v>
       </c>
       <c r="W4" t="n">
-        <v>1024.341879988165</v>
+        <v>1191.410677800983</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.341879988165</v>
+        <v>946.0189231343959</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>718.5992524485041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963669</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1567.987382813276</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.960978399567</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.56922373298</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.56922373298</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.2547160623778</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C8" t="n">
-        <v>332.1526472862051</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105257</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105257</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105257</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105257</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1579.374470242654</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1216.75752017648</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9020655875133</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>796.8000062072281</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>388.5138825068815</v>
+        <v>599.6503922994095</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6771095794467</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>777.6771095794467</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>611.7991167809694</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>442.0411130317067</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255688</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683213</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908995</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929005</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.05813650746</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760566</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>846.669627630996</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>777.6771095794467</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>777.6771095794467</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.6771095794467</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.22618407731</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>1033.64948478462</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>861.0877732678446</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>695.2097804693673</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>525.4517767201046</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>348.7447226818608</v>
       </c>
       <c r="G13" t="n">
         <v>325.2981002160653</v>
@@ -5194,10 +5194,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2645.285540329286</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2399.406093907741</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2399.406093907741</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1225.468103503607</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>115.5646047172016</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687547</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.84397037279</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847305</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939383</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
@@ -5519,22 +5519,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2492.071939528658</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3472.251606098964</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.561480932361</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
@@ -5698,13 +5698,13 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881912</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
         <v>1883.888462243221</v>
@@ -5716,7 +5716,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847302</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939379</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172017</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427939</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F22" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223544</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.995166752589</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1098.710185817962</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>926.1484743011866</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027093</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534465</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152028</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410306</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.948475222841</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536949</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4977.20847509607</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>922.9010479080735</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
         <v>444.5591692831957</v>
@@ -7120,19 +7120,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
         <v>1371.99516675259</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7199,25 +7199,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405614</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545776</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804052</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009656</v>
@@ -7397,61 +7397,61 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>126.8499155856334</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7579,7 +7579,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
@@ -7655,7 +7655,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7831,19 +7831,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
         <v>1371.99516675259</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803699</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.4781821385493</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608836536</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706658</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428501</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>712.7331429833475</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>541.6538920438379</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>137.2055943867781</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.96843159933724</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.0111327346203</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>140.7232059832932</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.4463752142718</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>267.5985112554895</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>267.5985112554897</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.5985112554901</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>49.7319563997972</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.14631452530428</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>81.78272691405223</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>197.1718905122108</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>110.0349065174847</v>
       </c>
     </row>
     <row r="35">
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722659.4920454936</v>
+        <v>726547.1981061684</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722659.4920454936</v>
+        <v>727648.0928685605</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>723384.6139582405</v>
+        <v>727648.0928685605</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695608.5688514303</v>
+        <v>695608.5688514302</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695608.5688514303</v>
+        <v>695608.5688514304</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724964.045341412</v>
+        <v>724964.0453414121</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724964.0453414118</v>
+        <v>724964.045341412</v>
       </c>
     </row>
     <row r="15">
@@ -26320,10 +26320,10 @@
         <v>227862.6109534236</v>
       </c>
       <c r="E2" t="n">
-        <v>214847.6566379625</v>
+        <v>214847.6566379626</v>
       </c>
       <c r="F2" t="n">
-        <v>214847.6566379625</v>
+        <v>214847.6566379624</v>
       </c>
       <c r="G2" t="n">
         <v>214847.6566379625</v>
@@ -26344,7 +26344,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
         <v>223914.4732583747</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039025</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390705</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784545</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228854</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932124</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.0861601279</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012788</v>
+        <v>26563.08616012789</v>
       </c>
       <c r="G4" t="n">
         <v>26563.08616012788</v>
@@ -26448,10 +26448,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="O4" t="n">
         <v>27684.07875020268</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814185</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155185.8643039708</v>
+        <v>-190739.1650315062</v>
       </c>
       <c r="C6" t="n">
-        <v>-12994.56364426083</v>
+        <v>5552.241785738966</v>
       </c>
       <c r="D6" t="n">
-        <v>-18759.93696026102</v>
+        <v>22892.786159646</v>
       </c>
       <c r="E6" t="n">
-        <v>-109034.0655518403</v>
+        <v>-47046.40556472419</v>
       </c>
       <c r="F6" t="n">
-        <v>114765.2282001871</v>
+        <v>114688.6696453902</v>
       </c>
       <c r="G6" t="n">
-        <v>114765.2282001871</v>
+        <v>114688.6696453902</v>
       </c>
       <c r="H6" t="n">
-        <v>114765.2282001871</v>
+        <v>114688.6696453902</v>
       </c>
       <c r="I6" t="n">
-        <v>100147.4402695401</v>
+        <v>100124.2159301575</v>
       </c>
       <c r="J6" t="n">
-        <v>7497.690557389375</v>
+        <v>-42118.89792261604</v>
       </c>
       <c r="K6" t="n">
-        <v>118512.1559023796</v>
+        <v>104674.9229951515</v>
       </c>
       <c r="L6" t="n">
-        <v>109564.5448138697</v>
+        <v>118488.9315629969</v>
       </c>
       <c r="M6" t="n">
-        <v>-68278.83070808818</v>
+        <v>-16501.01305000658</v>
       </c>
       <c r="N6" t="n">
-        <v>118512.1559023795</v>
+        <v>118488.9315629969</v>
       </c>
       <c r="O6" t="n">
-        <v>118512.1559023795</v>
+        <v>118488.9315629968</v>
       </c>
       <c r="P6" t="n">
-        <v>118512.1559023795</v>
+        <v>118488.9315629969</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3793744531702714</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>1.209031105629521</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>113.8674035420649</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>97.00787993732121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>156.1818662538038</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>192.1495349560565</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>86.55764165756301</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>201.0035474985375</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803699</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.4781821385493</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608836536</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706658</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428501</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>712.7331429833475</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,25 +35887,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>541.6538920438379</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36850,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>137.2055943867781</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,13 +37312,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
